--- a/mollab_protocols/project_related/Annalisa/samples.xlsx
+++ b/mollab_protocols/project_related/Annalisa/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/maartje_brouwer_nioz_nl/Documents/Documenten/GitHub/OT2/mollab_protocols/project_related/Annalisa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5392EF67-C07F-42AA-96BD-554D25209DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFF1B2BE-5D60-4B1D-A98B-3341E4B68888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="16080" windowWidth="20760" windowHeight="13200" xr2:uid="{CDFD0C56-B1C0-4174-9F6C-C559E633E6D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="13200" xr2:uid="{CDFD0C56-B1C0-4174-9F6C-C559E633E6D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,121 +50,121 @@
     <t>Vol H20</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>81S</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>9E</t>
+  </si>
+  <si>
+    <t>NC PCR</t>
+  </si>
+  <si>
+    <t>11S</t>
+  </si>
+  <si>
+    <t>st4</t>
+  </si>
+  <si>
+    <t>st8</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>82S</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>10E</t>
+  </si>
+  <si>
+    <t>12S</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>41S</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>11E</t>
+  </si>
+  <si>
+    <t>101S</t>
+  </si>
+  <si>
     <t>st1</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>81S</t>
-  </si>
-  <si>
-    <t>1E</t>
-  </si>
-  <si>
-    <t>9E</t>
-  </si>
-  <si>
-    <t>NC PCR</t>
-  </si>
-  <si>
-    <t>11S</t>
+    <t>st5</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>42S</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>12E</t>
+  </si>
+  <si>
+    <t>102S</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>5E</t>
+  </si>
+  <si>
+    <t>C+2</t>
   </si>
   <si>
     <t>st2</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>82S</t>
-  </si>
-  <si>
-    <t>2E</t>
-  </si>
-  <si>
-    <t>10E</t>
-  </si>
-  <si>
-    <t>12S</t>
+    <t>st6</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>6E</t>
+  </si>
+  <si>
+    <t>C+10</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>NCF1</t>
+  </si>
+  <si>
+    <t>7E</t>
+  </si>
+  <si>
+    <t>NC pcr</t>
   </si>
   <si>
     <t>st3</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>41S</t>
-  </si>
-  <si>
-    <t>3E</t>
-  </si>
-  <si>
-    <t>11E</t>
-  </si>
-  <si>
-    <t>101S</t>
-  </si>
-  <si>
-    <t>st4</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>42S</t>
-  </si>
-  <si>
-    <t>4E</t>
-  </si>
-  <si>
-    <t>12E</t>
-  </si>
-  <si>
-    <t>102S</t>
-  </si>
-  <si>
-    <t>st5</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>5E</t>
-  </si>
-  <si>
-    <t>C+2</t>
-  </si>
-  <si>
-    <t>st6</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>6E</t>
-  </si>
-  <si>
-    <t>C+10</t>
-  </si>
-  <si>
     <t>st7</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>NCF1</t>
-  </si>
-  <si>
-    <t>7E</t>
-  </si>
-  <si>
-    <t>NC pcr</t>
-  </si>
-  <si>
-    <t>st8</t>
   </si>
   <si>
     <t>H</t>
@@ -238,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -255,11 +257,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -297,6 +325,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -615,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AE187B-B1DE-4836-9E8E-ABDA685D4C2C}">
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,64 +709,64 @@
       </c>
     </row>
     <row r="2" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>101</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>47</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="2">
+        <v>101</v>
+      </c>
+      <c r="I2" s="2">
+        <v>83</v>
+      </c>
+      <c r="J2" s="2">
+        <v>52</v>
+      </c>
+      <c r="K2" s="2">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2">
-        <v>101</v>
-      </c>
-      <c r="K2" s="2">
-        <v>83</v>
-      </c>
-      <c r="L2" s="2">
-        <v>52</v>
-      </c>
-      <c r="M2" s="2">
-        <v>21</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="O2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="P2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="R2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>11</v>
+      <c r="B3" s="2">
+        <v>102</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
@@ -740,96 +774,96 @@
       <c r="G3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="2">
+        <v>102</v>
+      </c>
+      <c r="I3" s="2">
+        <v>71</v>
+      </c>
+      <c r="J3" s="2">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2">
-        <v>102</v>
-      </c>
-      <c r="K3" s="2">
-        <v>71</v>
-      </c>
-      <c r="L3" s="2">
-        <v>53</v>
-      </c>
-      <c r="M3" s="2">
+    </row>
+    <row r="4" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>103</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2">
+        <v>103</v>
+      </c>
+      <c r="I4" s="2">
+        <v>72</v>
+      </c>
+      <c r="J4" s="2">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2">
+        <v>23</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>47</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2">
-        <v>103</v>
-      </c>
-      <c r="K4" s="2">
-        <v>72</v>
-      </c>
-      <c r="L4" s="2">
-        <v>41</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="Q4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="5" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>23</v>
+      <c r="B5" s="2">
+        <v>91</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
@@ -837,93 +871,93 @@
       <c r="G5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="2">
+        <v>91</v>
+      </c>
+      <c r="I5" s="2">
+        <v>73</v>
+      </c>
+      <c r="J5" s="2">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2">
+        <v>11</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="2">
-        <v>91</v>
-      </c>
-      <c r="K5" s="2">
-        <v>73</v>
-      </c>
-      <c r="L5" s="2">
-        <v>42</v>
-      </c>
-      <c r="M5" s="2">
-        <v>11</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="6" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2">
+        <v>92</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>47</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="2">
+        <v>92</v>
+      </c>
+      <c r="I6" s="2">
+        <v>61</v>
+      </c>
+      <c r="J6" s="2">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2">
+        <v>12</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="2">
-        <v>92</v>
-      </c>
-      <c r="K6" s="2">
-        <v>61</v>
-      </c>
-      <c r="L6" s="2">
-        <v>43</v>
-      </c>
-      <c r="M6" s="2">
-        <v>12</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="10" t="s">
+      <c r="N6" s="19" t="s">
         <v>31</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>33</v>
+      <c r="B7" s="2">
+        <v>93</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
@@ -931,93 +965,93 @@
       <c r="G7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="2">
+        <v>93</v>
+      </c>
+      <c r="I7" s="2">
+        <v>62</v>
+      </c>
+      <c r="J7" s="4">
+        <v>31</v>
+      </c>
+      <c r="K7" s="6">
+        <v>13</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="2">
-        <v>93</v>
-      </c>
-      <c r="K7" s="2">
-        <v>62</v>
-      </c>
-      <c r="L7" s="4">
-        <v>31</v>
-      </c>
-      <c r="M7" s="6">
-        <v>13</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="8" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="2">
+        <v>81</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="H8" s="2">
+        <v>81</v>
+      </c>
+      <c r="I8" s="2">
+        <v>63</v>
+      </c>
+      <c r="J8" s="2">
+        <v>32</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="2">
-        <v>81</v>
-      </c>
-      <c r="K8" s="2">
-        <v>63</v>
-      </c>
-      <c r="L8" s="2">
-        <v>32</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>22</v>
+      <c r="M8" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>19</v>
+      <c r="O8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>42</v>
+      <c r="B9" s="2">
+        <v>82</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
@@ -1025,102 +1059,102 @@
       <c r="G9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="2">
+        <v>82</v>
+      </c>
+      <c r="I9" s="2">
+        <v>51</v>
+      </c>
+      <c r="J9" s="2">
+        <v>33</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="2">
-        <v>82</v>
-      </c>
-      <c r="K9" s="2">
-        <v>51</v>
-      </c>
-      <c r="L9" s="2">
-        <v>33</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>4</v>
+      <c r="B10" s="2">
+        <v>83</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>11</v>
+      <c r="B11" s="2">
+        <v>71</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>17</v>
+      <c r="B12" s="2">
+        <v>72</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>23</v>
+      <c r="B13" s="2">
+        <v>73</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>29</v>
+      <c r="B14" s="2">
+        <v>61</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
@@ -1130,14 +1164,14 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>33</v>
+      <c r="B15" s="2">
+        <v>62</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
@@ -1147,14 +1181,14 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>37</v>
+      <c r="B16" s="2">
+        <v>63</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
@@ -1165,14 +1199,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="6" t="s">
-        <v>42</v>
+      <c r="B17" s="2">
+        <v>51</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="12">
-        <v>47</v>
+      <c r="D17" s="3">
+        <v>41</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
@@ -1180,13 +1214,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -1194,13 +1228,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
@@ -1208,13 +1242,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -1222,13 +1256,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -1236,41 +1270,41 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>93</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>47</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
+      <c r="B23" s="4">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>41</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E24" s="3">
         <v>2</v>
@@ -1278,13 +1312,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
@@ -1292,13 +1326,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
@@ -1306,13 +1340,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E27" s="3">
         <v>2</v>
@@ -1320,13 +1354,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
@@ -1334,13 +1368,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E29" s="3">
         <v>2</v>
@@ -1348,377 +1382,377 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
-        <v>62</v>
+      <c r="B31" s="6">
+        <v>13</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <v>63</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
-        <v>47</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2</v>
+      <c r="B32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="9">
+        <v>3</v>
+      </c>
+      <c r="D32" s="9">
+        <v>41</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
-        <v>51</v>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E33" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <v>52</v>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <v>53</v>
+      <c r="B35" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <v>41</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3">
-        <v>47</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2</v>
+      <c r="B36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="9">
+        <v>3</v>
+      </c>
+      <c r="D36" s="9">
+        <v>41</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <v>42</v>
+      <c r="B37" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <v>43</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
-        <v>47</v>
-      </c>
-      <c r="E38" s="3">
-        <v>2</v>
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5">
+        <v>41</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="4">
-        <v>31</v>
+      <c r="B39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C39" s="5">
         <v>2</v>
       </c>
       <c r="D39" s="5">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="2">
-        <v>32</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3">
-        <v>47</v>
-      </c>
-      <c r="E40" s="3">
-        <v>2</v>
+      <c r="B40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="9">
+        <v>3</v>
+      </c>
+      <c r="D40" s="9">
+        <v>41</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="2">
-        <v>33</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
-        <v>47</v>
-      </c>
-      <c r="E41" s="3">
-        <v>2</v>
+      <c r="B41" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="14">
+        <v>3</v>
+      </c>
+      <c r="D41" s="14">
+        <v>41</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="2">
-        <v>21</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
-        <v>47</v>
-      </c>
-      <c r="E42" s="3">
-        <v>2</v>
+      <c r="B42" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="9">
+        <v>3</v>
+      </c>
+      <c r="D42" s="9">
+        <v>41</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="2">
-        <v>22</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3">
-        <v>47</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2</v>
+      <c r="B43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5">
+        <v>41</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="2">
-        <v>23</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3">
-        <v>47</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2</v>
+      <c r="B44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="9">
+        <v>3</v>
+      </c>
+      <c r="D44" s="9">
+        <v>41</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="2">
-        <v>11</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3">
-        <v>47</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2</v>
+      <c r="B45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="9">
+        <v>3</v>
+      </c>
+      <c r="D45" s="9">
+        <v>41</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="2">
-        <v>12</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3">
-        <v>47</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2</v>
+      <c r="B46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="9">
+        <v>3</v>
+      </c>
+      <c r="D46" s="9">
+        <v>41</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="6">
-        <v>13</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3">
-        <v>47</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2</v>
+      <c r="B47" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="9">
+        <v>3</v>
+      </c>
+      <c r="D47" s="9">
+        <v>41</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
-        <v>22</v>
+      <c r="B48" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C48" s="9">
         <v>3</v>
       </c>
       <c r="D48" s="9">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E48" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3">
-        <v>47</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2</v>
+      <c r="B49" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="9">
+        <v>3</v>
+      </c>
+      <c r="D49" s="9">
+        <v>41</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3">
-        <v>47</v>
-      </c>
-      <c r="E50" s="3">
-        <v>2</v>
+      <c r="B50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="9">
+        <v>3</v>
+      </c>
+      <c r="D50" s="9">
+        <v>41</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3">
-        <v>47</v>
-      </c>
-      <c r="E51" s="3">
-        <v>2</v>
+      <c r="B51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="9">
+        <v>3</v>
+      </c>
+      <c r="D51" s="9">
+        <v>41</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="9">
-        <v>3</v>
-      </c>
-      <c r="D52" s="9">
-        <v>47</v>
-      </c>
-      <c r="E52" s="9">
-        <v>0</v>
+      <c r="B52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2</v>
+      </c>
+      <c r="D52" s="5">
+        <v>41</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3">
-        <v>47</v>
-      </c>
-      <c r="E53" s="3">
-        <v>2</v>
+      <c r="B53" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="16">
+        <v>2</v>
+      </c>
+      <c r="D53" s="16">
+        <v>41</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="5">
-        <v>2</v>
-      </c>
-      <c r="D54" s="5">
-        <v>47</v>
-      </c>
-      <c r="E54" s="5">
-        <v>1</v>
+      <c r="B54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3">
+        <v>41</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="5">
-        <v>2</v>
-      </c>
-      <c r="D55" s="5">
-        <v>47</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1</v>
+      <c r="B55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3">
+        <v>41</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C56" s="9">
         <v>3</v>
       </c>
       <c r="D56" s="9">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E56" s="9">
         <v>0</v>
@@ -1726,197 +1760,197 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="14">
+      <c r="B57" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="9">
         <v>3</v>
       </c>
-      <c r="D57" s="14">
-        <v>47</v>
+      <c r="D57" s="9">
+        <v>41</v>
       </c>
       <c r="E57" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="9">
-        <v>3</v>
-      </c>
-      <c r="D58" s="9">
-        <v>47</v>
-      </c>
-      <c r="E58" s="9">
+      <c r="B58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
         <v>0</v>
       </c>
+      <c r="D58">
+        <v>41</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="5">
-        <v>2</v>
-      </c>
-      <c r="D59" s="5">
-        <v>47</v>
-      </c>
-      <c r="E59" s="5">
-        <v>1</v>
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>41</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="10" t="s">
-        <v>20</v>
+      <c r="B60" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C60" s="9">
         <v>3</v>
       </c>
       <c r="D60" s="9">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E60" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="9">
-        <v>3</v>
-      </c>
-      <c r="D61" s="9">
-        <v>47</v>
-      </c>
-      <c r="E61" s="9">
-        <v>0</v>
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3">
+        <v>41</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62" s="9">
-        <v>3</v>
-      </c>
-      <c r="D62" s="9">
-        <v>47</v>
-      </c>
-      <c r="E62" s="9">
-        <v>0</v>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3">
+        <v>41</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="9">
-        <v>3</v>
-      </c>
-      <c r="D63" s="9">
-        <v>47</v>
-      </c>
-      <c r="E63" s="9">
-        <v>0</v>
+      <c r="B63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3">
+        <v>41</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="10" t="s">
-        <v>40</v>
+      <c r="B64" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C64" s="9">
         <v>3</v>
       </c>
       <c r="D64" s="9">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C65" s="9">
-        <v>3</v>
-      </c>
-      <c r="D65" s="9">
-        <v>47</v>
-      </c>
-      <c r="E65" s="9">
-        <v>0</v>
+      <c r="B65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3">
+        <v>41</v>
+      </c>
+      <c r="E65" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="9">
-        <v>3</v>
-      </c>
-      <c r="D66" s="9">
-        <v>47</v>
-      </c>
-      <c r="E66" s="9">
-        <v>0</v>
+      <c r="B66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2</v>
+      </c>
+      <c r="D66" s="5">
+        <v>41</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="9">
-        <v>3</v>
-      </c>
-      <c r="D67" s="9">
-        <v>47</v>
-      </c>
-      <c r="E67" s="9">
-        <v>0</v>
+      <c r="B67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2</v>
+      </c>
+      <c r="D67" s="5">
+        <v>41</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" s="5">
-        <v>2</v>
-      </c>
-      <c r="D68" s="5">
-        <v>47</v>
-      </c>
-      <c r="E68" s="5">
-        <v>1</v>
+      <c r="B68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3">
+        <v>41</v>
+      </c>
+      <c r="E68" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" s="16">
-        <v>2</v>
-      </c>
-      <c r="D69" s="16">
-        <v>47</v>
-      </c>
-      <c r="E69" s="5">
-        <v>1</v>
+      <c r="B69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3">
+        <v>41</v>
+      </c>
+      <c r="E69" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E70" s="3">
         <v>2</v>
@@ -1924,91 +1958,97 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E71" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" s="9">
-        <v>3</v>
-      </c>
-      <c r="D72" s="9">
-        <v>47</v>
-      </c>
-      <c r="E72" s="9">
-        <v>0</v>
+      <c r="B72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3">
+        <v>41</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73" s="9">
-        <v>3</v>
-      </c>
-      <c r="D73" s="9">
-        <v>47</v>
-      </c>
-      <c r="E73" s="9">
-        <v>0</v>
+      <c r="B73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3">
+        <v>41</v>
+      </c>
+      <c r="E73" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>47</v>
+      <c r="B74" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3">
+        <v>41</v>
+      </c>
+      <c r="E74" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>47</v>
+      <c r="B75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3">
+        <v>41</v>
+      </c>
+      <c r="E75" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="9">
-        <v>3</v>
-      </c>
-      <c r="D76" s="9">
-        <v>47</v>
-      </c>
-      <c r="E76" s="9">
-        <v>0</v>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3">
+        <v>41</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
       </c>
       <c r="D77" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E77" s="3">
         <v>2</v>
@@ -2016,13 +2056,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
       </c>
       <c r="D78" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E78" s="3">
         <v>2</v>
@@ -2030,72 +2070,72 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
       <c r="D79" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E79" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="9">
-        <v>3</v>
-      </c>
-      <c r="D80" s="9">
-        <v>47</v>
-      </c>
-      <c r="E80" s="9">
-        <v>0</v>
+      <c r="B80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3">
+        <v>41</v>
+      </c>
+      <c r="E80" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E81" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="5">
-        <v>2</v>
-      </c>
-      <c r="D82" s="5">
-        <v>47</v>
-      </c>
-      <c r="E82" s="5">
-        <v>1</v>
+      <c r="B82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1</v>
+      </c>
+      <c r="D82" s="3">
+        <v>41</v>
+      </c>
+      <c r="E82" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="5">
-        <v>2</v>
-      </c>
-      <c r="D83" s="5">
-        <v>47</v>
-      </c>
-      <c r="E83" s="5">
-        <v>1</v>
+      <c r="B83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1</v>
+      </c>
+      <c r="D83" s="12">
+        <v>41</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
